--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_6_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_6_matched_error_tables_latest.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.4314679565639929</v>
+        <v>-0.01064165722506156</v>
       </c>
       <c r="C2">
-        <v>1.094226447256576</v>
+        <v>1.4457030009673</v>
       </c>
       <c r="D2">
-        <v>5.464654395542846</v>
+        <v>8.757661946936523</v>
       </c>
       <c r="E2">
-        <v>2.337660025654468</v>
+        <v>2.959334713569339</v>
       </c>
       <c r="F2">
-        <v>2.354233269644579</v>
+        <v>3.028956062860261</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3252121440269148</v>
+        <v>-0.1057000273176439</v>
       </c>
       <c r="C3">
-        <v>1.064653575359192</v>
+        <v>1.429381664828222</v>
       </c>
       <c r="D3">
-        <v>4.960315894328486</v>
+        <v>8.348262251371553</v>
       </c>
       <c r="E3">
-        <v>2.227176664373189</v>
+        <v>2.889335953358756</v>
       </c>
       <c r="F3">
-        <v>2.260543240649981</v>
+        <v>2.958706515248924</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.5291061291058048</v>
+        <v>-0.5533781653781482</v>
       </c>
       <c r="C4">
-        <v>0.9821934234587877</v>
+        <v>0.9838110950134815</v>
       </c>
       <c r="D4">
-        <v>4.326907630329119</v>
+        <v>4.162027514816797</v>
       </c>
       <c r="E4">
-        <v>2.080122022942192</v>
+        <v>2.04010478035242</v>
       </c>
       <c r="F4">
-        <v>2.066829729520875</v>
+        <v>2.014630727793039</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1639604678565542</v>
+        <v>-0.1254169797412491</v>
       </c>
       <c r="C5">
-        <v>0.6326196756361815</v>
+        <v>0.6292378930413424</v>
       </c>
       <c r="D5">
-        <v>0.9772129076206889</v>
+        <v>0.94278273826223</v>
       </c>
       <c r="E5">
-        <v>0.988540797145312</v>
+        <v>0.9709699986416831</v>
       </c>
       <c r="F5">
-        <v>1.003110975821105</v>
+        <v>0.9892200370224752</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.05650920361162621</v>
+        <v>-0.07984804025652048</v>
       </c>
       <c r="C6">
-        <v>0.5267983518183226</v>
+        <v>0.6307496203848055</v>
       </c>
       <c r="D6">
-        <v>0.4047165759379517</v>
+        <v>0.7016782114047131</v>
       </c>
       <c r="E6">
-        <v>0.6361733851222886</v>
+        <v>0.837662349282044</v>
       </c>
       <c r="F6">
-        <v>0.6531603870493466</v>
+        <v>0.8580225224554666</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1254681803514636</v>
+        <v>-0.12596358335141</v>
       </c>
       <c r="C7">
-        <v>0.5841685141426864</v>
+        <v>0.5576815445666784</v>
       </c>
       <c r="D7">
-        <v>0.7028813768528378</v>
+        <v>0.6625899158906151</v>
       </c>
       <c r="E7">
-        <v>0.8383802101987128</v>
+        <v>0.8139962628234942</v>
       </c>
       <c r="F7">
-        <v>0.856124048688977</v>
+        <v>0.8289410623092455</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04403352360292533</v>
+        <v>0.004716166735411878</v>
       </c>
       <c r="C8">
-        <v>0.4139653106589287</v>
+        <v>0.4246577403850764</v>
       </c>
       <c r="D8">
-        <v>0.3947565176461395</v>
+        <v>0.3914765290368093</v>
       </c>
       <c r="E8">
-        <v>0.6282965204790963</v>
+        <v>0.6256808523814752</v>
       </c>
       <c r="F8">
-        <v>0.6487495387655257</v>
+        <v>0.6461820480808862</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
